--- a/MinedData.xlsx
+++ b/MinedData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <x:si>
     <x:t>Site Name</x:t>
   </x:si>
@@ -37,445 +37,444 @@
     <x:t>Full DescText</x:t>
   </x:si>
   <x:si>
-    <x:t>U.S. Government seeks to lease 7,400 - 8,000 ABOA SF of Office and Related Space in Bemidji, MN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/ba90a73e3ebe43469df1c7d541ef77d4/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>U.S. Government seeks to lease 7,400 - 8,000 ABOA SF of Office and Related Space in Bemidji, MN
-Notice ID: 1MN2107
-General Services Administration (GSA) seeks to lease the following space:
-State: Minnesota
-City:
+    <x:t>Notice ID</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Download File Status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Keyword</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Repair of C-5 Tubing and Fitting (Aileron Servo Assembly)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/27e92b1e2ac04a1791f1811b796c9133/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Repair of C-5 Tubing and Fitting (Aileron Servo Assembly)
+Notice ID: FA853822R0013
+This notice is the formal issuance of Solicitation FA8538-22-R-0013 issued by AFSC/PZAAB C-5, C-130, and F-15 Supply Chain Contracting Section. The
 ...
 Department/Ind.Agency
-GENERAL SERVICES ADMINISTRATION
+DEPT OF DEFENSE
 Subtier
-PUBLIC BUILDINGS SERVICE
+DEPT OF THE AIR FORCE
 Office
-PBS R5</x:t>
+FA8538 AFSC PZAAB</x:t>
   </x:si>
   <x:si>
     <x:t>Contract Opportunities
 Current Date Offers Due
-July 23, 2022, 05:59 AM GMT+1
+July 25, 2022, 09:00 PM GMT+1
 Notice Type
-Original Combined Synopsis/Solicitation
+Original Solicitation
 Updated Date
-Jun 7, 2022
+Jun 10, 2022
 Published Date
-Jun 7, 2022</x:t>
+Jun 10, 2022</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> Original Set Aside: </x:t>
   </x:si>
   <x:si>
-    <x:t>Contract Opportunity General Information  Classification  Description  Attachments/Links  Contact Information  History Award Notices Follow U.S. Government seeks to lease 7,400 - 8,000 ABOA SF of Office and Related Space in Bemidji, MN Active Contract Opportunity  Notice ID  1MN2107  Related Notice  Department/Ind. Agency  GENERAL SERVICES ADMINISTRATION  Sub-tier  PUBLIC BUILDINGS SERVICE Office PBS R5  General Information Contract Opportunity Type: Combined Synopsis/Solicitation (Original) All Dates/Times are:  (UTC-05:00) CENTRAL STANDARD TIME, CHICAGO, USA Original Published Date: Jun 07, 2022 03:11 pm CDTOriginal Date Offers Due: Jul 22, 2022 11:59 pm CDTInactive Policy: 15 days after date offers due Original Inactive Date: Aug 06, 2022Initiative: None Classification  Original Set Aside: Product Service Code:  X1AA - LEASE/RENTAL OF OFFICE BUILDINGS NAICS Code: 531120 - Lessors of Nonresidential Buildings (except Miniwarehouses)Place of Performance:    Bemidji , MN    USA DescriptionGeneral Services Administration (GSA) seeks to lease the following space:
-State: Minnesota
-City: Bemidji
-Delineated Area:
-North: Balsam Road from Cardinal Road (County 9) to Irvine Avenue.
-South: Highway 2/71 from Cardinal Road to 197/71 cloverleaf.
-East: Lake Ave NE, roughly south to Highway 2 (follow established
-Bemidji city limits boundary)
-West: Cardinal Road (County 9)
-Minimum Sq. Ft. (ABOA): 7,400
-Maximum Sq. Ft. (ABOA): 8,000
-Space Type: Office
-Parking Spaces (Surface): 19
-Full Term: 15
-Firm Term: 13
-Option Term: N/A
-Tenant Improvement Allowance (TIA): $64.50 per ABOA SF
-Building Specific Amortized Capital (BSAC): $12.00 per ABOA SF
-Additional Requirements:
-Space must be contiguous.
-Second floor or above space is preferred. First floor space shall only be considered when no other space is available.
-The office space, elevator and the parking must be accessible twenty-four (24) hours a day, seven (7) days a week.
-The office will have file safes weighing between 850 – 1000 pounds each. The floor load of the proposed site shall be capable of supporting this additional weight. Number of safes TBD, however the safes will be dispersed throughout the office.
-Offered space shall not be located in the immediate vicinity, 640 feet of any facilities involved with hazardous materials transportation/storage facilities. This includes railroads tracks that transport these materials.
-Offered space shall not be located within 400 feet of a Public Defenders, Immigration and Customs Enforcement, Probation Offices, the Internal Revenue Service, universities or other businesses or facilities deemed unacceptable by the tenant’s Physical Security Unit (PSU).  This requirement may be waived by PSU if no other facility is deemed acceptable and PSU approved mitigating solutions can be achieved.
-Offered space shall not be located within 640 feet of day care centers, senior centers, schools, hospitals and religious/rehabilitation/social service centers.
-Offered space shall be in a building of substantial construction, such as concrete, concrete masonry unit, brick, etc. Determination of acceptable substantial construction subject to review by Tenant Government Agency.
-A program of requirements specifying the agency’s tenant improvement requirements will be provided during due diligence and will be incorporated into lease prior to award.
-Offered space must meet Government requirements for fire safety, accessibility, seismic, and sustainability standards per the terms of the Lease.  A fully serviced lease is required.  Offered space shall not be in the 100-year flood plain.
-Notes:   Entities not currently registered in the System for Award Management (SAM) are advised to start the registration process as soon as possible.
-Entities are advised to familiarize themselves with the telecommunications prohibitions outlined under Section 889 of the FY19 National Defense Authorization Act (NDAA), as implemented by the Federal Acquisition Regulation (FAR). For more information, visit: https://www.acquisition.gov/FAR-Case-2019-009/889_Part_B
-************************************************************************************************
-Offers Due:
-July 22, 2022, 11:59 PM
-Submit Offers to:
-Offers must be submitted electronically through the Requirement Specific Acquisition Platform (RSAP), located at https://lop.gsa.gov/rsap/
-Interested parties must go to the RSAP website, select the “Registration” link and follow the instructions to register.  Instructional guides and video tutorials are offered on the RSAP homepage and in the “HELP” tab on the RSAP website.
-Solicitation Number:
-Solicitation (RLP) Number: 1MN2107
-Government Contact Information (Not for Offer Submission)
-Jacquline Webster
-Lease Contracting Officer
-312-213-0773
-jacqueline.webster@gsa.gov
-Attachments/LinksContact Information  Contracting Office Address  OFFICE OF LEASING 230 S DEARBORN STREET  CHICAGO , IL 60604  USA  Primary Point of Contact Jacqueline Webster     jacqueline.webster@gsa.gov    Phone Number 3122130773  Secondary Point of Contact HistoryJun 07, 2022 03:11 pm CDTCombined Synopsis/Solicitation (Original)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1DB--Port Charlotte CBOC</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/e9f3b667e8b14c878166f66afaa662c4/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>X1DB--Port Charlotte CBOC
-Notice ID: 36C24822R0048
-The purpose of this amendment is to: Extend the due date for responses Respond to questions and answers (see attached Questions and Answers pdf) ...
+    <x:t>Contract Opportunity General Information  Classification  Description  Attachments/Links  Contact Information  History  Repair of C-5 Tubing and Fitting (Aileron Servo Assembly) Active Contract Opportunity  Notice ID  FA853822R0013  Related Notice  Department/Ind. Agency  General Information Contract Opportunity Type: Solicitation (Original) All Dates/Times are:  (UTC-04:00) EASTERN STANDARD TIME, NEW YORK, USA Original Published Date: Jun 10, 2022 03:12 pm EDTOriginal Date Offers Due: Jul 25, 2022 04:00 pm EDTInactive Policy: 15 days after date offers due Original Inactive Date: Aug 09, 2022Initiative: None Classification  Original Set Aside: Product Service Code: NAICS Code: Place of Performance:     ,   31098  USA DescriptionThis notice is the formal issuance of Solicitation FA8538-22-R-0013 issued by AFSC/PZAAB C-5, C-130, and F-15 Supply Chain Contracting Section. The Air Force intends to award a Firm Fixed Price Requirements Type Contract resulting from this solicitation supporting repair of the C-5 Tube and Fitting (Aileron Servo Assembly); National Stock Number 4710-00-402-8929 / Part Number 92960-105B, and National Stock Number 4710-00-402-8930 / Part Number 92960-107B.
+Basic Ordering Period consists of a repair BEQ of 8;
+Ordering Period I consists of a repair BEQ of 32;
+Ordering Period II consists of a repair BEQ of 27;
+Ordering Period III consists of a repair BEQ of 27;
+Ordering Period IV consists of a repair BEQ of 27.
+The proposed contract action is for supplies or services for which the Government intends to solicit and negotiate utilizing FULL AND OPEN COMPETITION. The GOVERNMENT OWNS A FULL AND COMPLETE TECHNICAL DATA PACKAGE
+This notices serves as the Air Force's formal request for proposal. Attached to this notice is the Solicitation document and all attachments. Proposal shall include a completed RFP.
+All potential offerors should contact the Buyer and Procuring Contracting Officer (PCO) identified below for additional information or to communicate concerns. Questions regarding this solicitation shall be submitted to the Buyer AND PCO in EMAIL FORMAT no later than 25 July 2022. Responses to any submitted questions will be posted as an attachment to this notice. Proposals shall be submitted to the Buyer/PCO in email format or via DoD Safe (safe.apps.mil/).
+Proposals are due NLT 4:00 PM EST on 25 July 2022
+Attachments/LinksContact Information  Primary Point of Contact Jessica Roberts     jessica.roberts.21@us.af.mil  Secondary Point of Contact Deborah S. Manly     deborah.manly@us.af.mil History</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> FA853822R0013 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>NO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y1DA--652-18-930 ER Headwall Renovation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/cbcb935cace6426c94559cf5400f6252/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Y1DA--652-18-930 ER Headwall Renovation
+Notice ID: 36C24622B0010
+See SOW for Additional Information ...
 Department/Ind.Agency
 VETERANS AFFAIRS, DEPARTMENT OF
 Subtier
 VETERANS AFFAIRS, DEPARTMENT OF
 Office
-248-NETWORK CONTRACT OFFICE 8 (36C248)</x:t>
+246-NETWORK CONTRACTING OFFICE 6 (36C246)</x:t>
   </x:si>
   <x:si>
     <x:t>Contract Opportunities
 Current Date Offers Due
-July 29, 2022, 08:00 PM GMT+1
+July 28, 2022, 03:00 PM GMT+1
 Notice Type
-Updated Combined Synopsis/Solicitation
+Original Solicitation
 Updated Date
-Jun 7, 2022 (1)
+Jun 10, 2022
 Published Date
-Jun 7, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunity General Information  Classification  Description  Attachments/Links  Contact Information  History  X1DB--Port Charlotte CBOC Active Contract Opportunity  36C24822R0048  Related Notice  Contract Line Item Number  Department/Ind. Agency  General Information Contract Opportunity Type:  Combined Synopsis/Solicitation  (Updated)All Dates/Times are:  (UTC-04:00) EASTERN STANDARD TIME, NEW YORK, USA Updated Published Date:  Jun 07, 2022 04:07 pm EDT Original Published Date: Inactive Policy: ManualUpdated Inactive Date:  Aug 28, 2022 Original Inactive Date: Authority: Fair Opportunity / Limited Sources Justification Authority: Initiative: Classification  Original Set Aside: Updated Set Aside:   Product Service Code: NAICS Code: Place of Performance:  TBD   , FL    USA DescriptionThe purpose of this amendment is to:
-Extend the due date for responses
-Respond to questions and answers (see attached Questions and Answers pdf)
-Contact Information  Primary Point of Contact Cynetra Moore     cynetra.moore@va.gov    Phone Number 813-972-7535  Secondary Point of Contact History</x:t>
-  </x:si>
-  <x:si>
-    <x:t>First Strike Ration</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/698d35418daa4799a8d869b70ffb00bb/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>First Strike Ration
-Notice ID: SPE3S1-22-R-0008
-Solicitation Notice for the upcoming First Strike Ration contract.
+Jun 10, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunity General Information  Classification  Description  Attachments/Links  Contact Information  History  Y1DA--652-18-930 ER Headwall Renovation Active Contract Opportunity  Notice ID  36C24622B0010  Related Notice  Department/Ind. Agency  General Information Contract Opportunity Type: Solicitation (Original) All Dates/Times are:  (UTC-04:00) EASTERN STANDARD TIME, NEW YORK, USA Original Published Date: Jun 10, 2022 02:49 pm EDTOriginal Date Offers Due: Jul 28, 2022 10:00 am EDTInactive Policy: ManualOriginal Inactive Date: Nov 04, 2022Initiative: None Classification  Original Set Aside: Product Service Code: NAICS Code: Place of Performance:           DescriptionSee SOW for Additional Information 
+Attachments/LinksContact Information  Primary Point of Contact Toni J Knight     Toni.Knight@va.gov  Secondary Point of Contact History</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 36C24622B0010 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>1377-01-448-9910 SS49 GGU-15A/A Gas Generator, Dry Bay Fire Extinguisher</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/47ee51aa39094083ba03126a39ea5a0c/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1377-01-448-9910 SS49 GGU-15A/A Gas Generator, Dry Bay Fire Extinguisher
+Notice ID: N0010422RK054
+N772. Paper copies will not be provided. Procurement is restricted to General Dynamics. A limited drawing package is available. Drawings are NOT avail...
+Department/Ind.Agency
+DEPT OF DEFENSE
+Subtier
+DEPT OF THE NAVY
+Office
+NAVSUP WEAPON SYSTEMS SUPPORT MECH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+August 26, 2022, 06:00 AM GMT+1
+Notice Type
+Updated Solicitation
+Updated Date
+Jun 10, 2022 (2)
+Published Date
+Jun 10, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunity General Information  Classification  Description  Attachments/Links  Contact Information  History Award Notices Follow 1377-01-448-9910 SS49 GGU-15A/A Gas Generator, Dry Bay Fire Extinguisher Active Contract Opportunity  Notice ID  N0010422RK054  Related Notice  Department/Ind. Agency  DEPT OF DEFENSE  Sub-tier  DEPT OF THE NAVY  Major Command  NAVSUP  Sub Command  NAVSUP WEAPON SYSTEMS SUPPORT  Sub Command 2  NAVSUP WSS MECHANICSBURG Office NAVSUP WEAPON SYSTEMS SUPPORT MECH  General Information  View Changes Contract Opportunity Type:  Solicitation  (Updated)All Dates/Times are:  (UTC-04:00) EASTERN STANDARD TIME, NEW YORK, USA Updated Published Date:  Jun 10, 2022 01:10 pm EDT Original Published Date: Jun 08, 2022 10:41 am EDTUpdated Date Offers Due:  Aug 26, 2022 01:00 am EDT Original Date Offers Due: Jul 29, 2022 01:00 am EDTInactive Policy: 15 days after date offers due Updated Inactive Date:  Sep 10, 2022 Original Inactive Date: Aug 13, 2022Initiative: None Classification  Original Set Aside: Product Service Code:  1377 - CARTRIDGE AND PROPELLANT ACTUATED DEVICES AND COMPONENTS NAICS Code: 325920 - Explosives ManufacturingPlace of Performance:           DescriptionN772. Paper copies will not be provided. Procurement is restricted to General Dynamics. A limited drawing package is available. Drawings are NOT available on CD. Item is explosive. A Safety Survey will be required. Explosive Weight: 0.42578lbs. Explosive Class: 1.4C. The solicitation contains LAT, CDRLs, FOB Origin, &amp; X-Ray Requirements.Attachments/LinksContact Information  Contracting Office Address  P O BOX 2020 5450 CARLISLE PIKE  MECHANICSBURG , PA 17050-0788  USA  Primary Point of Contact Telephone: 7176054048     royce.hoffman@navy.mil  Secondary Point of Contact HistoryJun 10, 2022 01:10 pm EDTSolicitation (Updated)Jun 08, 2022 03:11 pm EDTSolicitation (Updated)Jun 08, 2022 10:41 am EDTSolicitation (Original)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> N0010422RK054 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marine Corps Wideband Satellite - Light and Heavy (MCWS-L/H) Solicitation</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/129f69bff51e486ea3151ccf184fd18b/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Marine Corps Wideband Satellite - Light and Heavy (MCWS-L/H) Solicitation
+Notice ID: M6785422R2001
+THIS IS A REQUEST FOR PROPOSAL (RFP). The Marine Corps Systems Command (MCSC), Quantico, VA, requires delivery of Marine Corps Wideband Satellite C
+...
+Department/Ind.Agency
+DEPT OF DEFENSE
+Subtier
+DEPT OF THE NAVY
+Office
+COMMANDER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 26, 2022, 03:00 PM GMT+1
+Notice Type
+Original Solicitation
+Updated Date
+Jun 10, 2022
+Published Date
+Jun 10, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunity General Information  Classification  Description  Attachments/Links  Contact Information  History  Marine Corps Wideband Satellite - Light and Heavy (MCWS-L/H) Solicitation Active Contract Opportunity  Notice ID  M6785422R2001  Related Notice  Department/Ind. Agency  General Information Contract Opportunity Type: Solicitation (Original) All Dates/Times are:  (UTC-04:00) EASTERN STANDARD TIME, NEW YORK, USA Original Published Date: Jun 10, 2022 11:56 am EDTOriginal Date Offers Due: Jul 26, 2022 10:00 am EDTInactive Policy: 15 days after date offers due Original Inactive Date: Aug 10, 2022Initiative: None Classification  Original Set Aside: Product Service Code: NAICS Code: Place of Performance:           DescriptionTHIS IS A REQUEST FOR PROPOSAL (RFP). The Marine Corps Systems Command (MCSC), Quantico, VA, requires delivery of Marine Corps Wideband Satellite Communications (SATCOM) Light (MCWS-L) and Heavy (MCWS-H) Systems to the United States Marine Corps (USMC). The MCWS-L/H uses beyond line of sight terminals to provide access to the World Wide Web, Department of Defense (DoD) information network services, and Marine Corps enterprise services via DoD gateways, utilizing radio frequency and over the horizon transmission means. The work to be performed under this effort includes two separate phases for the MCWS-L and MCWS-H Systems. The first phase is to procure MCWS-L and MCWS-H Test Systems to support a Developmental Test that will include testing and logistics efforts to support the Government’s production decision. The second phase will consist of the production, testing, and delivery of systems to support the USMC’s fielding requirements. The phases will include deliveries of the following, as ordered: technical data, logistics data, training data, training support, fielding support, and sustainment support as well as any technology upgrades or engineering changes needed to maintain the relevance of the MCWS-L and MCWS-H systems.
+MCSC intends to meet this requirement by selecting a single contractor for a single-award, Indefinite Delivery/Indefinite Quantity contract for both systems, consisting of five, 1-year ordering periods. The North American Industry Classification System (NAICS) code is 517410 - Satellite Telecommunications. This procurement will be conducted as a full and open competition.
+An award will be made to a single vendor offering on all contract line items utilizing the Best Value Trade-Off approach. Technical requirements are forth in the RFP. This RFP is also released via the Solicitation Module in PIEE. All documents of this RFP package is included in both postings. No paper copies will be issued.
+Offerors requesting the restricted documents on SAM.gov, must provide an active CAGE code in their request prior to receiving access to the RFP's restricted documents. Should offerors have issues or questions about accessing the requesting documents please contact Wanda Harner and Katy Hurd at wanda.harner@usmc.mil and kathryn.hurd@usmc.mil respectively.
+It is the responsibility of those responding to the RFP to obtain all amendments and/or other applicable documents. NO PHONE CALLS WILL BE ACCEPTED AT ANY POINT DURING THE RFP PROCESS. ALL COMMUNICATION SHALL BE THROUGH THE CONTRACTING OFFICE VIA EMAIL. PROSPECTIVE OFFERORS ARE CAUTIONED AGAINST UNAUTHORIZED COMMUNICATION WITH THE SOURCE SELECTION TEAM.
+In order to be eligible for award, interested parties must be registered in System for Award Management (SAM) at https://www.sam.gov.
+Attachments/LinksContact Information  Primary Point of Contact Wanda Harner     wanda.harner@usmc.mil  Secondary Point of Contact Kathryn E. Hurd     kathryn.hurd@usmc.mil History</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> M6785422R2001 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gospel Service Worship Leader-Drummer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/faaf2120ea124da39061cb697d03f1a6/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Gospel Service Worship Leader-Drummer
+Notice ID: W911S7-22-R-0009
+Solicitation, Statement of Work (SOW) and Wage Determination is attached. 
+Questions are due NLT 15 July 2022 by 1600 CST,
+Ans
+...
+Department/Ind.Agency
+DEPT OF DEFENSE
+Subtier
+DEPT OF THE ARMY
+Office
+W6QM MICC-FT LEONARD WOOD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 29, 2022, 10:00 PM GMT+1
+Notice Type
+Original Solicitation
+Updated Date
+Jun 10, 2022
+Published Date
+Jun 10, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunity General Information  Classification  Description  Attachments/Links  Contact Information  History  Gospel Service Worship Leader-Drummer Active Contract Opportunity  Notice ID  W911S7-22-R-0009  Related Notice  Department/Ind. Agency  General Information Contract Opportunity Type: Solicitation (Original) All Dates/Times are:  (UTC-05:00) CENTRAL STANDARD TIME, CHICAGO, USA Original Published Date: Jun 10, 2022 10:50 am CDTOriginal Date Offers Due: Jul 29, 2022 04:00 pm CDTInactive Policy: 15 days after date offers due Original Inactive Date: Aug 13, 2022Initiative: None Classification  Original Set Aside: Product Service Code: NAICS Code: Place of Performance:     ,   65473  USA DescriptionSolicitation, Statement of Work (SOW) and Wage Determination is attached. 
+Questions are due NLT 15 July 2022 by 1600 CST,
+Answers will be posted NLT 22 July 2022 by 1600 CST.
+Attachments/LinksContact Information  Primary Point of Contact Ashley Johnson     ashley.d.johnson105.civ@mail.mil    Phone Number 573-596-0259  Secondary Point of Contact History</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> W911S7-22-R-0009 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Residential Reentry Center (RRC) Services and Home Confinement Services Located in the State of Nebraska within and/or to the West of the Counties of Boyd, Holt, Wheeler, Greeley, Howard, Hall, Hamilton, Clay, or Nuckolls</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/c9682e621d5840eebc26a6b14c370018/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Residential Reentry Center (RRC) Services and Home Confinement Services Located in the State of Nebraska within and/or to the West of the Counties of Boyd, Holt, Wheeler, Greeley, Howard, Hall, Hamilton, Clay, or Nuckolls
+Notice ID: 15BRRC22R00000005
+The Federal Bureau of Prisons is seeking concerns having the ability for providing Residential Reentry Center (RRC) services (in-house RRC beds) an
+...
+Department/Ind.Agency
+JUSTICE, DEPARTMENT OF
+Subtier
+FEDERAL PRISON SYSTEM / BUREAU OF PRISONS
+Office
+RESIDENTIAL REENTRY - CO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+August 08, 2022, 07:10 PM GMT+1
+Notice Type
+Original Solicitation
+Updated Date
+Jun 10, 2022
+Published Date
+Jun 10, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunity General Information  Classification  Description  Attachments/Links  Contact Information  History Award Notices Follow Residential Reentry Center (RRC) Services and Home Confinement Services Located in the State of Nebraska within and/or to the West of the Counties of Boyd, Holt, Wheeler, Greeley, Howard, Hall, Hamilton, Clay, or Nuckolls Active Contract Opportunity  Notice ID  15BRRC22R00000005  Related Notice  15BRRC22PR00000362  Department/Ind. Agency  JUSTICE, DEPARTMENT OF  Sub-tier  FEDERAL PRISON SYSTEM / BUREAU OF PRISONS Office RESIDENTIAL REENTRY - CO  General Information Contract Opportunity Type: Solicitation (Original) All Dates/Times are:  (UTC-04:00) EASTERN STANDARD TIME, NEW YORK, USA Original Published Date: Jun 10, 2022 11:44 am EDTOriginal Date Offers Due: Aug 08, 2022 02:10 pm EDTInactive Policy: ManualOriginal Inactive Date: Oct 01, 2023Initiative: None Classification  Original Set Aside: Product Service Code:  G099 - SOCIAL- OTHER NAICS Code: 623990 - Other Residential Care FacilitiesPlace of Performance:      NE    USA DescriptionThe Federal Bureau of Prisons is seeking concerns having the ability for providing Residential Reentry Center (RRC) services (in-house RRC beds) and Home Confinement services (home confinement placements) for male and female Federal offenders held under the authority of United States Statutes located in the state of Nebraska within and/or to the west of the counties of Boyd, Holt, Wheeler, Greeley, Howard, Hall, Hamilton, Clay, or Nuckolls.
+Both the RRC services for in-house RRC beds and the Home Confinement services for home confinement placements shall be in accordance with the Federal Bureau of Prisons Statement of Work entitled, "Residential Reentry Center, 2022 SOW”.   Home Confinement services (for home confinement placements) are specifically defined in chapter 10, Programs, of the aforementioned SOW.  Additional requirements for these services are referenced throughout the SOW as well.  This will be an indefinite delivery, indefinite quantity type contract with firm fixed unit prices for all line items.
+The RRC In-House requirement will consist of a maximum of 25 beds in which 20 beds will be designated for males and 5 beds designated for females for the One-year Base Period and each of the Four One-year Option Periods
+The Home Confinement requirement will consist of a maximum of 15 placements to include both males and females for the One-year Base Period and each of the Four One-year Option Periods.
+The Home Confinement Radius will be within 200 miles of the RRC.
+It is the intent of the Government to award both line items (RRC in-house beds and home confinement placements) to a single provider, as these services are interconnected and rely upon each other to ensure adequate programming and case management of offenders. The Government reserves the right to potentially make an award which is deemed to be in the best interest of the Government.
+Attachments/LinksContact Information  Contracting Office Address  320 FIRST STREET NW   WASHINGTON , DC 20534  USA  Primary Point of Contact Kevin Hoff     khoff@bop.gov    Phone Number 2155217355  Secondary Point of Contact HistoryJun 10, 2022 11:44 am EDTSolicitation (Original)May 01, 2022 11:55 pm EDTPresolicitation (Inactive)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 15BRRC22R00000005 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Z1DA--528-19-104 SITE PREP EMERGENCY DEPARTMENT X-RAY EQUIPMENT | Actionable Package: 4/19/2022 l Current Milestone: Presolicitation l Proposed Posting: 5/15/2022 l Proposed Award: 7/15/2022 l Comments: 4/19/2022-Assigned to CO and</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/d96d6f0b6b0e43c3b9f0f98449c04150/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Z1DA--528-19-104 SITE PREP EMERGENCY DEPARTMENT X-RAY EQUIPMENT | Actionable Package: 4/19/2022 l Current Milestone: Presolicitation l Proposed Posting: 5/15/2022 l Proposed Award: 7/15/2022 l Comments: 4/19/2022-Assigned to CO and
+Notice ID: 36C24222B0041
+THIS PAGE LEFT BLANK INTENTIONALLY ...
+Department/Ind.Agency
+VETERANS AFFAIRS, DEPARTMENT OF
+Subtier
+VETERANS AFFAIRS, DEPARTMENT OF
+Office
+242-NETWORK CONTRACT OFFICE 02 (36C242)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 19, 2022, 06:00 PM GMT+1
+Notice Type
+Updated Solicitation
+Updated Date
+Jun 10, 2022 (1)
+Published Date
+Jun 10, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunity General Information  Classification  Description  Attachments/Links  Contact Information  History Award Notices Follow Z1DA--528-19-104 SITE PREP EMERGENCY DEPARTMENT X-RAY EQUIPMENT |  Actionable Package: 4/19/2022 l Current Milestone:  Presolicitation l Proposed Posting: 5/15/2022 l Proposed  Award: 7/15/2022 l Comments: 4/19/2022-Assigned to CO and Active Contract Opportunity  Notice ID  36C24222B0041  Related Notice  Department/Ind. Agency  VETERANS AFFAIRS, DEPARTMENT OF  Sub-tier  VETERANS AFFAIRS, DEPARTMENT OF Office 242-NETWORK CONTRACT OFFICE 02 (36C242)  General Information Contract Opportunity Type:  Solicitation  (Updated)All Dates/Times are:  (UTC-04:00) EASTERN STANDARD TIME, NEW YORK, USA Updated Published Date:  Jun 10, 2022 09:35 am EDT Original Published Date: Jun 08, 2022 12:43 pm EDTUpdated Date Offers Due:  Jul 19, 2022 01:00 pm EDT Original Date Offers Due: Jul 19, 2022 01:00 pm EDTInactive Policy: ManualUpdated Inactive Date:  Aug 18, 2022 Original Inactive Date: Oct 26, 2022Initiative: None Classification  Original Set Aside: Product Service Code:  Z1DA - MAINTENANCE OF HOSPITALS AND INFIRMARIES NAICS Code: 236220 - Commercial and Institutional Building ConstructionPlace of Performance:           DescriptionTHIS PAGE LEFT BLANK INTENTIONALLY
+Attachments/LinksContact Information  Contracting Office Address  113 HOLLAND AVE   ALBANY , NY 12208  USA  Primary Point of Contact Tanya  Baldwin     TANYA.BALDWIN@va.gov  Secondary Point of Contact HistoryJun 10, 2022 09:35 am EDTSolicitation (Updated)Jun 08, 2022 12:43 pm EDTSolicitation (Original)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 36C24222B0041 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>WASO_CECH_267542_EX PLAN &amp; DESIGN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/d792b8eec4404512900aad0e29d6c959/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WASO_CECH_267542_EX PLAN &amp; DESIGN
+Notice ID: 140P2122R0026
+WASO_CECH_EX PLAN &amp; DESIGN...
+Department/Ind.Agency
+INTERIOR, DEPARTMENT OF THE
+Subtier
+NATIONAL PARK SERVICE
+Office
+WASHINGTON CONTRACTING OFFICE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunities
+Current Date Offers Due
+July 18, 2022, 03:00 PM GMT+1
+Notice Type
+Original Solicitation
+Updated Date
+Jun 10, 2022
+Published Date
+Jun 10, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunity General Information  Classification  Description  Attachments/Links  Contact Information  History  WASO_CECH_267542_EX PLAN &amp; DESIGN Active Contract Opportunity  Notice ID  140P2122R0026  Related Notice  Department/Ind. Agency  General Information Contract Opportunity Type: Solicitation (Original) All Dates/Times are:  (UTC-04:00) EASTERN STANDARD TIME, NEW YORK, USA Original Published Date: Jun 10, 2022 08:53 am EDTOriginal Date Offers Due: Jul 18, 2022 10:00 am EDTInactive Policy: 15 days after date offers due Original Inactive Date: Aug 02, 2022Initiative: None Classification  Original Set Aside: Product Service Code: NAICS Code: Place of Performance:           DescriptionWASO_CECH_EX PLAN &amp; DESIGNAttachments/LinksContact Information  Primary Point of Contact Spring, Sheila     Sheila_Spring@nps.gov    Phone Number 3045356239    Fax Number 6130  Secondary Point of Contact History</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 140P2122R0026 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contractor-Owned, Contractor Operated (COCO) Fuel Storage Services on the Island of Oahu, Hawaii</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/d710800a165245d994cbe8c36d776ec9/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contractor-Owned, Contractor Operated (COCO) Fuel Storage Services on the Island of Oahu, Hawaii
+Notice ID: SPE603-22-R-0511
+Defense Logistics Agency (DLA) – Energy – FESBB solicitation and attachments for a Contractor-Owned Contractor Operated (COCO) fuel sto
 ...
 Department/Ind.Agency
 DEPT OF DEFENSE
 Subtier
 DEFENSE LOGISTICS AGENCY (DLA)
 Office
-DLA TROOP SUPPORT</x:t>
+DLA ENERGY</x:t>
   </x:si>
   <x:si>
     <x:t>Contract Opportunities
 Current Date Offers Due
-August 04, 2022, 08:00 PM GMT+1
+July 25, 2022, 08:00 PM GMT+1
 Notice Type
 Updated Solicitation
 Updated Date
-Jun 7, 2022 (1)
+Jun 10, 2022 (1)
 Published Date
-Jun 7, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunity General Information  Classification  Description  Attachments/Links  Contact Information  History Award Notices Follow First Strike Ration Active Contract Opportunity  Notice ID  SPE3S1-22-R-0008  Related Notice  SPE3S122RFSR  Department/Ind. Agency  DEPT OF DEFENSE  Sub-tier  DEFENSE LOGISTICS AGENCY (DLA)  Major Command  TROOP SUPPORT SUBSISTENCE Office DLA TROOP SUPPORT  General Information  View Changes Contract Opportunity Type:  Solicitation  (Updated)All Dates/Times are:  (UTC-04:00) EASTERN STANDARD TIME, NEW YORK, USA Updated Published Date:  Jun 07, 2022 01:14 pm EDT Original Published Date: May 24, 2022 10:52 am EDTUpdated Date Offers Due:  Aug 04, 2022 03:00 pm EDT Original Date Offers Due: Jun 24, 2022 03:00 pm EDTInactive Policy: 15 days after date offers due Updated Inactive Date:  Aug 19, 2022 Original Inactive Date: Jul 09, 2022Initiative: None Classification  Original Set Aside: Product Service Code:  8970 - COMPOSITE FOOD PACKAGES NAICS Code: 311422 - Specialty CanningPlace of Performance:    Philadelphia , PA  19111  USA DescriptionSolicitation Notice for the upcoming First Strike Ration contract.
-Attachments/LinksContact Information   View Changes Contracting Office Address  SUBSISTENCE SUPPLY CHAIN 700 ROBBINS AVENUE  PHILADELPHIA , PA 19111-5096  USA  Primary Point of Contact Darren Gregory     darren.gregory@dla.mil    Phone Number 215-737-2609  Secondary Point of Contact Matthew Conroy     matthew.conroy@dla.mil    Phone Number 2157379042 HistoryJun 07, 2022 01:14 pm EDTSolicitation (Updated)Jun 01, 2022 11:55 pm EDTPresolicitation (Inactive)May 24, 2022 10:52 am EDTSolicitation (Original)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Special Studies, Reporting, and Business Services Support</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/a65b1429760e40ee9e7a63191655dc70/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Special Studies, Reporting, and Business Services Support
-Notice ID: 86614922R00006f
-Special Studies, Reporting, Research, and Business Services Support Basic Purchasing Agreement (BPA). This solicitation is issued under multiple NA
-...
-Department/Ind.Agency
-HOUSING AND URBAN DEVELOPMENT, DEPARTMENT OF
-Subtier
-HOUSING AND URBAN DEVELOPMENT, DEPARTMENT OF
-Office
-CPO : CPO; ACFO; WFCOD; REAL ESTATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunities
-Current Date Offers Due
-July 29, 2022, 06:00 PM GMT+1
-Notice Type
-Original Combined Synopsis/Solicitation
-Updated Date
-Jun 7, 2022
-Published Date
-Jun 7, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunity General Information  Classification  Description  Attachments/Links  Contact Information  History  Special Studies, Reporting, and Business Services Support Active Contract Opportunity  Notice ID  86614922R00006f  Related Notice  Department/Ind. Agency  General Information Contract Opportunity Type: Combined Synopsis/Solicitation (Original) All Dates/Times are:  (UTC-04:00) EASTERN STANDARD TIME, NEW YORK, USA Original Published Date: Jun 07, 2022 12:55 pm EDTOriginal Date Offers Due: Jul 29, 2022 01:00 pm EDTInactive Policy: ManualOriginal Inactive Date: Oct 15, 2022Initiative: None Classification  Original Set Aside: Partial Small Business Set-Aside (FAR 19.5)Product Service Code:  R701 - SUPPORT- MANAGEMENT: ADVERTISING NAICS Code: 541430 - Graphic Design ServicesPlace of Performance:          USA DescriptionSpecial Studies, Reporting, Research, and Business Services Support Basic Purchasing Agreement (BPA). This solicitation is issued under multiple NAICS: 541611, 541211, 541613, 541820, 561410, and 541430.
-Pool 1 - Full and Open Competition- The work in this BPA shall provide support services for client satisfaction data collection and analysis in comparison to related industry data and client satisfaction with counseling services and resultant outcomes.
-Pool 2 - Small-Business Set Aside Competitive - The work in this BPA is for services to provide planning and support services to convey research results to key audiences through the development and implementation of effective information dissemination strategies, to provide "finished deliverables in final form based upon text and program information furnished by the Office of Policy Development and Research, to maintain mailing lists based on information from several sources in different formats, and mail materials furnished by HUD.
-Attachments/LinksContact Information  Primary Point of Contact Debra McCraw     debra.a.mccraw@hud.gov    Phone Number 3036725189  Secondary Point of Contact History</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Machine Shop Rapid Prototyping Solicitation</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/d37167e22b3b45fb8e019682b6e0445f/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Machine Shop Rapid Prototyping Solicitation
-Notice ID: N0017822R4305
-The Naval Surface Warfare Center, Dahlgren Division (NSWCDD) has a need for the rapid manufacture, assembly, inspection and delivery of machined pr
+Jun 10, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunity General Information  Classification  Description  Attachments/Links  Contact Information  History  Contractor-Owned, Contractor Operated (COCO) Fuel Storage Services on the Island of Oahu, Hawaii Active Contract Opportunity  Notice ID  SPE603-22-R-0511  Related Notice  SPE60322R0511  Department/Ind. Agency  General Information Contract Opportunity Type:  Solicitation  (Updated)All Dates/Times are:  (UTC-04:00) EASTERN STANDARD TIME, NEW YORK, USA Updated Published Date:  Jun 10, 2022 07:28 am EDT Original Published Date: Jun 08, 2022 03:51 pm EDTUpdated Date Offers Due:  Jul 25, 2022 03:00 pm EDT Original Date Offers Due: Jul 25, 2022 03:00 pm EDTInactive Policy: 15 days after date offers due Updated Inactive Date:  Aug 09, 2022 Original Inactive Date: Aug 09, 2022Initiative: None Classification  Original Set Aside: Product Service Code:  M1NA - OPERATION OF FUEL SUPPLY FACILITIES NAICS Code: Place of Performance:          USA DescriptionDefense Logistics Agency (DLA) – Energy – FESBB solicitation and attachments for a Contractor-Owned Contractor Operated (COCO) fuel storage services on the Island of Oahu, Hawaii on a 24 hour, 7 days per week basis.
+Attachments/LinksContact Information  Primary Point of Contact Kirk Gamblin     kirk.gamblin@dla.mil    Phone Number 5717670515  Secondary Point of Contact Shane Banks     shane.Banks@dla.mil    Phone Number 5717678298 History</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> SPE603-22-R-0511 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>HELICOPTER RESCUE OPS MAINTENANCE HANGAR KADENA AB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/e8c9688cb6b44dcfab1bd94c7d385b29/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HELICOPTER RESCUE OPS MAINTENANCE HANGAR KADENA AB
+Notice ID: W912HV22R0005
+June 10, 2022: Extend the proposal due date to 30 August 2022 at 2:00 PM, JST from 14 June 2022. All other terms and condit
 ...
 Department/Ind.Agency
 DEPT OF DEFENSE
 Subtier
-DEPT OF THE NAVY
+DEPT OF THE ARMY
 Office
-NSWC DAHLGREN</x:t>
+US ARMY ENGINEER DISTRICT JPN</x:t>
   </x:si>
   <x:si>
     <x:t>Contract Opportunities
 Current Date Offers Due
-July 29, 2022, 05:00 PM GMT+1
+August 30, 2022, 06:00 AM GMT+1
 Notice Type
 Updated Solicitation
 Updated Date
-Jun 7, 2022 (2)
+Jun 10, 2022 (3)
 Published Date
-Jun 7, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunity General Information  Classification  Description  Attachments/Links  Contact Information  History  Machine Shop Rapid Prototyping Solicitation Active Contract Opportunity  N0017822R4305  Related Notice  Contract Line Item Number  Department/Ind. Agency  General Information Contract Opportunity Type:  Solicitation  (Updated)All Dates/Times are:  (UTC-04:00) EASTERN STANDARD TIME, NEW YORK, USA Updated Published Date:  Jun 07, 2022 12:50 pm EDT Original Published Date: Inactive Policy: ManualUpdated Inactive Date:  Dec 25, 2022 Original Inactive Date: Authority: Fair Opportunity / Limited Sources Justification Authority: Initiative: None Classification  Original Set Aside: Updated Set Aside:   Product Service Code: NAICS Code: Place of Performance:     ,     USA DescriptionThe Naval Surface Warfare Center, Dahlgren Division (NSWCDD) has a need for the rapid manufacture, assembly, inspection and delivery of machined prototypes and assemblies. The Government anticipates competitively awarding multiple contracts for proposals submitted in response to this solicitation. Each contract will be for Indefinite-Delivery-Indefinite-Quantity (IDIQ) type, awarded on a Firm-Fixed-Price (FFP) basis, with Ordering periods of five (5) years. The Government intends to make an award to each and all qualifying Offerors. The combined total price of all Delivery Orders (DO) under all awarded contracts will not exceed
-$50,000,000.
-This requirement is Set-Aside for Small Business competition. It is not a direct follow-on to any current effort. FAR clause 52.219-6, Notice of Total Small Business Set-Aside applies.
-Offerors should not rely on information contained in previous postings. This solicitation represents the Government’s requirements and shall be the Governing Document.
-Contact Information  Primary Point of Contact Stacey Palivoda     stacey.l.palivoda.civ@us.navy.mil  Secondary Point of Contact Dana M Phillips     dana.m.phillips9.civ@us.navy.mil History</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/b3fb7959d99c4f368f9f0b708aab436e/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Special Studies, Reporting, and Business Services Support
-Notice ID: 86614922R00006e
-Special Studies, Reporting, Research, and Business Services Support Basic Purchasing Agreement (BPA). This solicitation is issued under multiple NA
+Jun 10, 2022</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Contract Opportunity General Information  Classification  Description  Attachments/Links  Contact Information  History  HELICOPTER RESCUE OPS MAINTENANCE HANGAR KADENA AB Active Contract Opportunity  Notice ID  W912HV22R0005  Related Notice  W912HV-21-R-0003  Department/Ind. Agency  General Information Contract Opportunity Type:  Solicitation  (Updated)All Dates/Times are:  (UTC+09:00) TOKYO, JAPAN Updated Published Date:  Jun 10, 2022 12:01 pm JST Original Published Date: Nov 30, 2021 12:01 pm JSTUpdated Date Offers Due:  Aug 30, 2022 02:00 pm JST Original Date Offers Due: Jun 14, 2022 02:00 pm JSTInactive Policy: 15 days after date offers due Updated Inactive Date:  Sep 14, 2022 Original Inactive Date: Jun 29, 2022Initiative: None Classification  Original Set Aside: Product Service Code:  Y1BZ - CONSTRUCTION OF OTHER AIRFIELD STRUCTURES NAICS Code: 236220 - Commercial and Institutional Building ConstructionPlace of Performance:          JPN DescriptionJune 10, 2022: Extend the proposal due date to 30 August 2022 at 2:00 PM, JST from 14 June 2022. All other terms and conditions remain unchanged.
+March 16, 2022: Provide Pre-proposal conference and site visit sign-in sheet and requested As-built drawings and site photographs.
+December 15, 2021: Provide Pre-proposal Conference presentation. Contractors are encouraged to print and bring with a copy of the presentation with them to the conference. Extra copies with not be available. A traditional Power Point presentation will not be conducted at the site.
+Construct a Helicopter Rescue Squadron Operations (Squad Ops) and Helicopter Maintenance Unit Hangar. The facility is comprised of single-story bays for aircraft maintenance and storage, a two-story facility for administrative spaces and shops, a simulator bay, and cranes for simulator and hangar. The Hangar bays will be constructed of structural steel with precast concrete cladding. The roof structure for the hangar bays will consist of a low sloping metal roof panels on purlins supported by structural steel trusses. The squadron operations and Helicopter Maintenance Unit areas will also be constructed using cast-in place reinforced concrete walls with precast concrete columns and beams. The roof and floor plates will be constructed using precast concrete double tees with a cast in place topping slab roof and floor. The project will include supporting facilities such as utilities, pavements, aircraft parking apron, edge lighting on the taxiway connection, aircraft wash rack, backup generator, and site improvements to provide a complete and useable facility. The project demolishes existing facilities to include Building 3534 (10,015 Square Meters), Building 3532 (58 Square Meters), Building 3536 (58 Square Meters), Building 3538 (92 Square Meters), Building 7109 (49 Square Meters), Building 83534 (50 Square Meters), Building 3516 (57 Square Meters), Building 3603 (52 Square Meters) and Building 3604 (52 Square Meters) (Total = 10,483 Square Meters). Also includes Utilities include Heating Ventilation and Air Conditioning system, electrical system, domestic hot and cold water system, sanitary waste and vent system, automatic wet-pipe sprinkler and high-expansion foam fire protection systems, intrusion detection system, and cybersecurity of facility-related control system. Fencing is required to tie in at the facility to secure the flight line. Paved asphalt parking will be provided for personal and government vehicles.
+Facilities are designed as permanent construction in accordance with the Department of Defense Unified Facilities Criteria 1-200-01, General Building Requirements. This project will comply with Department of Defense antiterrorism/force protection requirements per Unified Facilities Criteria 4-010-01, Department of Defense Minimum Antiterrorism Standards for Buildings. As a mission critical facility, a backup generator is authorized per AFI 32-1062.
+Attachments/LinksContact Information  Primary Point of Contact Jack Letscher     jack.t.letscher.civ@usace.army.mil    Phone Number 098-970-9068 / 315-645-9068  Secondary Point of Contact Norman G. Mackie     norman.g.mackie.civ@usace.army.mil    Phone Number 098-970-4402 / 315-645-4402 History</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> W912HV22R0005 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>Construction: NFSR 700 and 91 Recondition/Resurface</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://sam.gov/opp/8efef603f0264783b79ad0ce1a29c596/view</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Construction: NFSR 700 and 91 Recondition/Resurface
+Notice ID: 127EAX22R0034
+Project:  The USDA Forest Service, Coconino National Forest, Flagstaff Ranger District, has a requirement fo
 ...
 Department/Ind.Agency
-HOUSING AND URBAN DEVELOPMENT, DEPARTMENT OF
+AGRICULTURE, DEPARTMENT OF
 Subtier
-HOUSING AND URBAN DEVELOPMENT, DEPARTMENT OF
+FOREST SERVICE
 Office
-CPO : CPO; ACFO; WFCOD; REAL ESTATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunity General Information  Classification  Description  Attachments/Links  Contact Information  History  Special Studies, Reporting, and Business Services Support Active Contract Opportunity  Notice ID  86614922R00006e  Related Notice  Department/Ind. Agency  General Information Contract Opportunity Type: Combined Synopsis/Solicitation (Original) All Dates/Times are:  (UTC-04:00) EASTERN STANDARD TIME, NEW YORK, USA Original Published Date: Jun 07, 2022 12:49 pm EDTOriginal Date Offers Due: Jul 29, 2022 01:00 pm EDTInactive Policy: ManualOriginal Inactive Date: Oct 15, 2022Initiative: None Classification  Original Set Aside: Product Service Code: NAICS Code: Place of Performance:          USA DescriptionSpecial Studies, Reporting, Research, and Business Services Support Basic Purchasing Agreement (BPA). This solicitation is issued under multiple NAICS: 541611, 541211, 541613, 541820, 561410, and 541430.
-Pool 1 - Full and Open Competition- The work in this BPA shall provide support services for client satisfaction data collection and analysis in comparison to related industry data and client satisfaction with counseling services and resultant outcomes.
-Pool 2 - Small-Business Set Aside Competitive - The work in this BPA is for services to provide planning and support services to convey research results to key audiences through the development and implementation of effective information dissemination strategies, to provide "finished deliverables in final form based upon text and program information furnished by the Office of Policy Development and Research, to maintain mailing lists based on information from several sources in different formats, and mail materials furnished by HUD.
-Attachments/LinksContact Information  Primary Point of Contact Debra McCraw     debra.a.mccraw@hud.gov    Phone Number 3036725189  Secondary Point of Contact History</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/ccc9953b3ba340c1847e77840d101934/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Special Studies, Reporting, and Business Services Support
-Notice ID: 86614922R00006c
-Special Studies, Reporting, Research, and Business Services Support Basic Purchasing Agreement (BPA). This solicitation is issued under multiple NA
-...
-Department/Ind.Agency
-HOUSING AND URBAN DEVELOPMENT, DEPARTMENT OF
-Subtier
-HOUSING AND URBAN DEVELOPMENT, DEPARTMENT OF
-Office
-CPO : CPO; ACFO; WFCOD; REAL ESTATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunity General Information  Classification  Description  Attachments/Links  Contact Information  History Award Notices Follow Special Studies, Reporting, and Business Services Support Active Contract Opportunity  Notice ID  86614922R00006c  Related Notice  Department/Ind. Agency  HOUSING AND URBAN DEVELOPMENT, DEPARTMENT OF  Sub-tier  HOUSING AND URBAN DEVELOPMENT, DEPARTMENT OF Office CPO : CPO; ACFO; WFCOD; REAL ESTATE  General Information Contract Opportunity Type: Combined Synopsis/Solicitation (Original) All Dates/Times are:  (UTC-04:00) EASTERN STANDARD TIME, NEW YORK, USA Original Published Date: Jun 07, 2022 12:38 pm EDTOriginal Date Offers Due: Jul 29, 2022 01:00 pm EDTInactive Policy: ManualOriginal Inactive Date: Oct 15, 2022Initiative: None Classification  Original Set Aside: Partial Small Business Set-Aside (FAR 19.5)Product Service Code:  R408 - SUPPORT- PROFESSIONAL: PROGRAM MANAGEMENT/SUPPORT NAICS Code: 541613 - Marketing Consulting ServicesPlace of Performance:          USA DescriptionSpecial Studies, Reporting, Research, and Business Services Support Basic Purchasing Agreement (BPA). This solicitation is issued under multiple NAICS: 541611, 541211, 541613, 541820, 561410, and 541430.
-Pool 1 - Full and Open Competition- The work in this BPA shall provide support services for client satisfaction data collection and analysis in comparison to related industry data and client satisfaction with counseling services and resultant outcomes.
-Pool 2 - Small-Business Set Aside Competitive - The work in this BPA is for services to provide planning and support services to convey research results to key audiences through the development and implementation of effective information dissemination strategies, to provide "finished deliverables in final form based upon text and program information furnished by the Office of Policy Development and Research, to maintain mailing lists based on information from several sources in different formats, and mail materials furnished by HUD.
-Attachments/LinksContact Information  Contracting Office Address  1670 BROADWAY STREET, 23RD FLOOR   DENVER , CO 80202  USA  Primary Point of Contact Debra McCraw     debra.a.mccraw@hud.gov    Phone Number 3036725189  Secondary Point of Contact HistoryJun 07, 2022 12:38 pm EDTCombined Synopsis/Solicitation (Original)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/b81c4ec7623a44229a2ca5a818aee33c/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Special Studies, Reporting, and Business Services Support
-Notice ID: 86614922R00006b
-Special Studies, Reporting, Research, and Business Services Support Basic Purchasing Agreement (BPA). This solicitation is issued under multiple NA
-...
-Department/Ind.Agency
-HOUSING AND URBAN DEVELOPMENT, DEPARTMENT OF
-Subtier
-HOUSING AND URBAN DEVELOPMENT, DEPARTMENT OF
-Office
-CPO : CPO; ACFO; WFCOD; REAL ESTATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunity General Information  Classification  Description  Attachments/Links  Contact Information  History  Special Studies, Reporting, and Business Services Support Active Contract Opportunity  Notice ID  86614922R00006b  Related Notice  Department/Ind. Agency  General Information Contract Opportunity Type: Combined Synopsis/Solicitation (Original) All Dates/Times are:  (UTC-04:00) EASTERN STANDARD TIME, NEW YORK, USA Original Published Date: Jun 07, 2022 12:27 pm EDTOriginal Date Offers Due: Jul 29, 2022 01:00 pm EDTInactive Policy: ManualOriginal Inactive Date: Oct 15, 2022Initiative: None Classification  Original Set Aside: Product Service Code: NAICS Code: Place of Performance:          USA DescriptionSpecial Studies, Reporting, Research, and Business Services Support Basic Purchasing Agreement (BPA). This solicitation is issued under multiple NAICS: 541611, 541211, 541613, 541820, 561410, and 541430.
-Pool 1 - Full and Open Competition- The work in this BPA shall provide support services for client satisfaction data collection and analysis in comparison to related industry data and client satisfaction with counseling services and resultant outcomes.
-Pool 2 - Small-Business Set Aside Competitive - The work in this BPA is for services to provide planning and support services to convey research results to key audiences through the development and implementation of effective information dissemination strategies, to provide "finished deliverables in final form based upon text and program information furnished by the Office of Policy Development and Research, to maintain mailing lists based on information from several sources in different formats, and mail materials furnished by HUD.
-Attachments/LinksContact Information  Primary Point of Contact Debra McCraw     debra.a.mccraw@hud.gov    Phone Number 3036725189  Secondary Point of Contact History</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/ab5c704200134348b96c988aa4e6ebd8/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Special Studies, Reporting, and Business Services Support
-Notice ID: 86614922R00006a
-Special Studies, Reporting, Research, and Business Services Support Basic Purchasing Agreement (BPA). This solicitation is issued under multiple NA
-...
-Department/Ind.Agency
-HOUSING AND URBAN DEVELOPMENT, DEPARTMENT OF
-Subtier
-HOUSING AND URBAN DEVELOPMENT, DEPARTMENT OF
-Office
-CPO : CPO; ACFO; WFCOD; REAL ESTATE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunity General Information  Classification  Description  Attachments/Links  Contact Information  History  Special Studies, Reporting, and Business Services Support Active Contract Opportunity  Notice ID  86614922R00006a  Related Notice  Department/Ind. Agency  General Information Contract Opportunity Type: Combined Synopsis/Solicitation (Original) All Dates/Times are:  (UTC-04:00) EASTERN STANDARD TIME, NEW YORK, USA Original Published Date: Jun 07, 2022 12:16 pm EDTOriginal Date Offers Due: Jul 29, 2022 01:00 pm EDTInactive Policy: ManualOriginal Inactive Date: Oct 15, 2022Initiative: None Classification  Original Set Aside: Product Service Code: NAICS Code: Place of Performance:          USA DescriptionSpecial Studies, Reporting, Research, and Business Services Support Basic Purchasing Agreement (BPA). This solicitation is issued under multiple NAICS: 541611, 541211, 541613, 541820, 561410, and 541430.
-Pool 1 - Full and Open Competition- The work in this BPA shall provide support services for client satisfaction data collection and analysis in comparison to related industry data and client satisfaction with counseling services and resultant outcomes.
-Pool 2 - Small-Business Set Aside Competitive - The work in this BPA is for services to provide planning and support services to convey research results to key audiences through the development and implementation of effective information dissemination strategies, to provide "finished deliverables in final form based upon text and program information furnished by the Office of Policy Development and Research, to maintain mailing lists based on information from several sources in different formats, and mail materials furnished by HUD.
-Attachments/LinksContact Information  Primary Point of Contact Debra McCraw     debra.a.mccraw@hud.gov    Phone Number 303-672-5189  Secondary Point of Contact History</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Replace Courtesy Dock, Lake Mead, Nevada</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/b9238855fc744b018e2d5f32709f7731/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Replace Courtesy Dock, Lake Mead, Nevada
-Notice ID: 140P8122R0005
-Replace Courtesy Dock at Hemenway Harbor Lake Mead National Recreation Area...
-Department/Ind.Agency
-INTERIOR, DEPARTMENT OF THE
-Subtier
-NATIONAL PARK SERVICE
-Office
-PWR LAME(81000)</x:t>
+Southwestern Regional Office, Region 3</x:t>
   </x:si>
   <x:si>
     <x:t>Contract Opportunities
 Current Date Offers Due
-July 21, 2022, 10:00 PM GMT+1
+July 20, 2022, 12:00 AM GMT+1
 Notice Type
 Original Solicitation
 Updated Date
-Jun 7, 2022
+Jun 10, 2022
 Published Date
-Jun 7, 2022</x:t>
+Jun 10, 2022</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve"> Original Set Aside: Total Small Business Set-Aside (FAR 19.5)</x:t>
   </x:si>
   <x:si>
-    <x:t>Contract Opportunity General Information  Classification  Description  Attachments/Links  Contact Information  History Award Notices Follow Replace Courtesy Dock, Lake Mead, Nevada Active Contract Opportunity  Notice ID  140P8122R0005  Related Notice  140P8122R0005  Department/Ind. Agency  INTERIOR, DEPARTMENT OF THE  Sub-tier  NATIONAL PARK SERVICE Office PWR LAME(81000)  General Information Contract Opportunity Type: Solicitation (Original) All Dates/Times are:  (UTC-07:00) PACIFIC STANDARD TIME, LOS ANGELES, USA Original Published Date: Jun 07, 2022 08:00 am PDTOriginal Date Offers Due: Jul 21, 2022 02:00 pm PDTInactive Policy: 15 days after date offers due Original Inactive Date: Aug 05, 2022Initiative: None Classification  Original Set Aside: Total Small Business Set-Aside (FAR 19.5)Product Service Code:  Y1PA - CONSTRUCTION OF RECREATION FACILITIES (NON-BUILDING) NAICS Code: 237990 - Other Heavy and Civil Engineering ConstructionPlace of Performance:           DescriptionReplace Courtesy Dock at Hemenway Harbor Lake Mead National Recreation AreaAttachments/LinksContact Information  Contracting Office Address  601 NEVADA WAY   BOULDER CITY , NV 89005  USA  Primary Point of Contact Read, James     Jim_Read@nps.gov    Phone Number 7602526112    Fax Number 305 242 7711  Secondary Point of Contact HistoryJun 07, 2022 08:00 am PDTSolicitation (Original)May 09, 2022 09:33 am PDTPresolicitation (Original)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Replace Fishing Pier, Lake Mead, Nevada</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/30cf9f43e10d410b9cbaaccb9ff54f73/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Replace Fishing Pier, Lake Mead, Nevada
-Notice ID: 140P8122R0004
-Replace Hemenway Harbor Fishing Pier, Lake Mead National Recreation Area....
-Department/Ind.Agency
-INTERIOR, DEPARTMENT OF THE
-Subtier
-NATIONAL PARK SERVICE
-Office
-PWR LAME(81000)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunity General Information  Classification  Description  Attachments/Links  Contact Information  History Award Notices Follow Replace Fishing Pier, Lake Mead, Nevada Active Contract Opportunity  Notice ID  140P8122R0004  Related Notice  140P8122R0004  Department/Ind. Agency  INTERIOR, DEPARTMENT OF THE  Sub-tier  NATIONAL PARK SERVICE Office PWR LAME(81000)  General Information Contract Opportunity Type: Solicitation (Original) All Dates/Times are:  (UTC-07:00) PACIFIC STANDARD TIME, LOS ANGELES, USA Original Published Date: Jun 07, 2022 07:57 am PDTOriginal Date Offers Due: Jul 21, 2022 02:00 pm PDTInactive Policy: 15 days after date offers due Original Inactive Date: Aug 05, 2022Initiative: None Classification  Original Set Aside: Total Small Business Set-Aside (FAR 19.5)Product Service Code:  Y1PA - CONSTRUCTION OF RECREATION FACILITIES (NON-BUILDING) NAICS Code: 237990 - Other Heavy and Civil Engineering ConstructionPlace of Performance:           DescriptionReplace Hemenway Harbor Fishing Pier, Lake Mead National Recreation Area.Attachments/LinksContact Information  Contracting Office Address  601 NEVADA WAY   BOULDER CITY , NV 89005  USA  Primary Point of Contact Read, James     Jim_Read@nps.gov    Phone Number 7602526112    Fax Number 305 242 7711  Secondary Point of Contact HistoryJun 07, 2022 07:57 am PDTSolicitation (Original)May 09, 2022 09:31 am PDTPresolicitation (Original)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stryker Upgrade Kit</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/471b92d98b5f484399484de6e2bf9aae/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Stryker Upgrade Kit
-Notice ID: SPRRA2-22-R-0024-0001
-DLA AHCA
-REFER
-June 6, 2022
-Raytheon Company
-2501 W. University Drive,
-McKinney, TX 75071
-RE: Amendment 0001 to
-...
-Department/Ind.Agency
-DEPT OF DEFENSE
-Subtier
-DEFENSE LOGISTICS AGENCY (DLA)
-Office
-DLA AVIATION AT HUNTSVILLE, AL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunities
-Current Date Offers Due
-September 06, 2022, 10:00 PM GMT+1
-Notice Type
-Original Solicitation
-Updated Date
-Jun 7, 2022
-Published Date
-Jun 7, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunity General Information  Classification  Description  Attachments/Links  Contact Information  History Award Notices Stryker Upgrade Kit Active Contract Opportunity  Notice ID  SPRRA2-22-R-0024-0001  Related Notice  SPRRA2-22-R-0024  Department/Ind. Agency  General Information Contract Opportunity Type: Solicitation (Original) All Dates/Times are:  (UTC-05:00) CENTRAL STANDARD TIME, CHICAGO, USA Original Published Date: Jun 07, 2022 09:17 am CDTOriginal Date Offers Due: Sep 06, 2022 04:00 pm CDTInactive Policy: 15 days after date offers due Original Inactive Date: Sep 21, 2022Initiative: None Classification  Original Set Aside: Product Service Code: NAICS Code: Place of Performance:    Fairdale , KY  40118  USA DescriptionDLA AHCA
-REFER
-June 6, 2022
-Raytheon Company
-2501 W. University Drive,
-McKinney, TX 75071
-RE: Amendment 0001 to Letter Request for Proposal SPRRA2-22-R-0024
-Jonda Heater,
-The purpose of this amendment to Letter Request for Proposal SPRRA2-22-R-0024 is to:
-1)Address the clin structure. The first CLIN will be for the production of 37 each Stryker Upgrade Kits. The second CLIN will be for a Level of Effort (LOE) which will be the cost of building the proposal. The cost of the proposal shall not be wrapped up in any other cost element that makes up the production CLIN price.2)Extend the proposal due date from July 26, 2022 to September 6, 2022.
-If you have any questions, feel free to contact Michael Ellison at Michael.ellison@dla.mil or phone (256)690-5751.
-Attachments/LinksContact Information  Primary Point of Contact Michael Ellison     michael.ellison@dla.mil    Phone Number 2566905751  Secondary Point of Contact GREGORY MCCRELESS     gregory.mccreless@dla.mil    Phone Number 2563099765 HistoryJun 07, 2022 09:17 am CDTSolicitation (Original)May 08, 2022 10:55 pm CDTPresolicitation (Inactive)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mission Planning Support Contract IV (MPSC IV)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://sam.gov/opp/f4f0b6ac52584d5cbc00dcd0216b80dc/view</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mission Planning Support Contract IV (MPSC IV)
-Notice ID: FA8217-22-R-0001
-6/6/2022:
-The purpose of this action is to post the Request for Proposal (RFP) for the Mission Planning Support Contract (MPSC) IV. We are
-...
-Department/Ind.Agency
-DEPT OF DEFENSE
-Subtier
-DEPT OF THE AIR FORCE
-Office
-FA8217 AFLCMC PZZK</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunities
-Current Date Offers Due
-July 21, 2022, 11:00 PM GMT+1
-Notice Type
-Original Solicitation
-Updated Date
-Jun 7, 2022
-Published Date
-Jun 7, 2022</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Contract Opportunity General Information  Classification  Description  Attachments/Links  Contact Information  History  Mission Planning Support Contract IV (MPSC IV) Active Contract Opportunity  Notice ID  FA8217-22-R-0001  Related Notice  Department/Ind. Agency  General Information Contract Opportunity Type: Solicitation (Original) All Dates/Times are:  (UTC-06:00) MOUNTAIN STANDARD TIME, DENVER, USA Original Published Date: Jun 06, 2022 10:29 pm MDTOriginal Date Offers Due: Jul 21, 2022 04:00 pm MDTInactive Policy: 15 days after date offers due Original Inactive Date: Aug 05, 2022Initiative: None Classification  Original Set Aside: Product Service Code:  R499 - SUPPORT- PROFESSIONAL: OTHER NAICS Code: Place of Performance:           Description6/6/2022:
-The purpose of this action is to post the Request for Proposal (RFP) for the Mission Planning Support Contract (MPSC) IV. We are also posting the latest Q&amp;A's document from the Draft RFP and Industry Day event (recent update is on row 49) . Please note that proposals are due by 21 July 2022 at 4:00PM MDT (45 days). The government is also aware that Section M is missing Paragraph 3.2, but due to all the other correlated documents, we have decided not to update it and just proceed as is. Notice to Offeror(s)/Supplier(s): Funds are not presently available for this effort. No award will be made under this solicitation until funds are available. The Government reserves the right to cancel this solicitation, either before or after the closing date. In the event the Government cancels this solicitation, the Government has no obligation to reimburse an offeror for any costs. Please contact the individuals listed in this announcement with any questions. 
-Attachments/LinksContact Information  Primary Point of Contact Casey Hodson     casey.hodson@us.af.mil    Phone Number 801-586-2144  Secondary Point of Contact Marshall Neilson     marshall.neilson.1@us.af.mil    Phone Number 801-586-3809 History</x:t>
+    <x:t>Contract Opportunity General Information  Classification  Description  Attachments/Links  Contact Information  History Award Notices Follow Construction: NFSR 700 and 91 Recondition/Resurface Active Contract Opportunity  Notice ID  127EAX22R0034  Related Notice  Department/Ind. Agency  AGRICULTURE, DEPARTMENT OF  Sub-tier  FOREST SERVICE Office Southwestern Regional Office, Region 3  General Information Contract Opportunity Type: Solicitation (Original) All Dates/Times are:  (UTC-07:00) PACIFIC STANDARD TIME, LOS ANGELES, USA Original Published Date: Jun 09, 2022 04:26 pm PDTOriginal Date Offers Due: Jul 19, 2022 04:00 pm PDTInactive Policy: ManualOriginal Inactive Date: Aug 01, 2022Initiative: None Classification  Original Set Aside: Total Small Business Set-Aside (FAR 19.5)Product Service Code:  Z2LB - REPAIR OR ALTERATION OF HIGHWAYS/ROADS/STREETS/BRIDGES/RAILWAYS NAICS Code: 237310 - Highway, Street, and Bridge ConstructionPlace of Performance:    Flagstaff , AZ  86001  USA DescriptionProject:  The USDA Forest Service, Coconino National Forest, Flagstaff Ranger District, has a requirement for  Road Reconditioning and Surfacing, Coconino County, Arizona. 
+This project will consist of reconditioning and surfacing with crushed aggregate 7.2 miles of FSR 700 and 3.0 miles of FSR 91. There are also Options A-B for the reconditioning and resurfacing with crushed aggregate for an additional 2.00 miles of FSR 700 and Options C-E for the reconditioning and resurfacing with crushed aggregate for an additional 3.00 miles of FSR 91.
+Magnitude of project:  Between $500,000 and $1,000,000.  This solicitation is set-aside 100 percent for Small Business under the NAICS 237310 ($39.5 Million).  Award will be based on Best Value - Tradeoffs.  The Government intends to award a Firm Fixed-Price contract.  Payment and Performance Bonds required from awarded Contractor.  No Bid Bond is required.
+No Formal Site Visit will be scheduled.  However, unofficial site visits requests may be made with Contracting Officer’s Representative (COR) up through July 8, 2022.  COR contact information may be obtained from page 1 of RFP.  Any questions arising from unofficial site visits shall be directed in writing to the Contracting Officer: warren.abbott@usda.gov.
+Offer Submission:  Interested parties should submit an offer in accordance with the requirements of the solicitation.  Responses to this solicitation should be sent by email in electronic format to the Contracting Officer.  All submittal and deadline requirements shall be met by use of email: warren.abbott@usda.gov. 
+Deadline for submission of offers shall be July 19, 2022, 4:00 p.m Pacific Daylight Time. 
+Attachments/LinksContact Information  Contracting Office Address  R3 OFFICE-ALBUQUERQUE 333 BROADWAY SE  ALBUQUERQUE , NM 87102  USA  Primary Point of Contact Warren Abbott     warren.abbott@usda.gov    Phone Number email    Fax Number 9283335966  Secondary Point of Contact Michelle Bahr     michelle.l.bahr@usda.gov    Phone Number email    Fax Number 9283335966 HistoryJun 09, 2022 04:26 pm PDTSolicitation (Original)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 127EAX22R0034 </x:t>
   </x:si>
 </x:sst>
 </file>
@@ -826,13 +825,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:G14"/>
+  <x:dimension ref="A1:J12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:7">
+    <x:row r="1" spans="1:10">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -854,265 +853,300 @@
       <x:c r="G1" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
+      <x:c r="H1" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="I1" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:7">
+    <x:row r="2" spans="1:10">
       <x:c r="A2" s="0" t="s">
-        <x:v>7</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="H2" s="0" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="I2" s="0" t="s">
+        <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:7">
+    <x:row r="3" spans="1:10">
       <x:c r="A3" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
         <x:v>14</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
       <x:c r="G3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="4" spans="1:7">
+    <x:row r="4" spans="1:10">
       <x:c r="A4" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="B4" s="0" t="s">
-        <x:v>19</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C4" s="0" t="s">
-        <x:v>20</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="D4" s="0" t="s">
-        <x:v>21</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="F4" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G4" s="0" t="s">
-        <x:v>22</x:v>
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="H4" s="0" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="I4" s="0" t="s">
+        <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="5" spans="1:7">
+    <x:row r="5" spans="1:10">
       <x:c r="A5" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="B5" s="0" t="s">
-        <x:v>24</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C5" s="0" t="s">
-        <x:v>25</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D5" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="F5" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G5" s="0" t="s">
-        <x:v>27</x:v>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="H5" s="0" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="I5" s="0" t="s">
+        <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="6" spans="1:7">
+    <x:row r="6" spans="1:10">
       <x:c r="A6" s="0" t="s">
-        <x:v>28</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B6" s="0" t="s">
-        <x:v>29</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C6" s="0" t="s">
-        <x:v>30</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="D6" s="0" t="s">
-        <x:v>31</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="F6" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G6" s="0" t="s">
-        <x:v>32</x:v>
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="H6" s="0" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="I6" s="0" t="s">
+        <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="7" spans="1:7">
+    <x:row r="7" spans="1:10">
       <x:c r="A7" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
-        <x:v>33</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="C7" s="0" t="s">
-        <x:v>34</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="D7" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="F7" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G7" s="0" t="s">
-        <x:v>35</x:v>
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="H7" s="0" t="s">
+        <x:v>47</x:v>
+      </x:c>
+      <x:c r="I7" s="0" t="s">
+        <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="8" spans="1:7">
+    <x:row r="8" spans="1:10">
       <x:c r="A8" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
-        <x:v>36</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C8" s="0" t="s">
-        <x:v>37</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="D8" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="F8" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G8" s="0" t="s">
-        <x:v>38</x:v>
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="H8" s="0" t="s">
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="I8" s="0" t="s">
+        <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="9" spans="1:7">
+    <x:row r="9" spans="1:10">
       <x:c r="A9" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
-        <x:v>39</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C9" s="0" t="s">
-        <x:v>40</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="D9" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="F9" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G9" s="0" t="s">
-        <x:v>41</x:v>
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="H9" s="0" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="I9" s="0" t="s">
+        <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="10" spans="1:7">
+    <x:row r="10" spans="1:10">
       <x:c r="A10" s="0" t="s">
-        <x:v>23</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
-        <x:v>42</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C10" s="0" t="s">
-        <x:v>43</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="D10" s="0" t="s">
-        <x:v>26</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="F10" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G10" s="0" t="s">
-        <x:v>44</x:v>
+        <x:v>64</x:v>
+      </x:c>
+      <x:c r="H10" s="0" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="I10" s="0" t="s">
+        <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="11" spans="1:7">
+    <x:row r="11" spans="1:10">
       <x:c r="A11" s="0" t="s">
-        <x:v>45</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
-        <x:v>46</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C11" s="0" t="s">
-        <x:v>47</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="D11" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="F11" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="G11" s="0" t="s">
-        <x:v>50</x:v>
+        <x:v>70</x:v>
+      </x:c>
+      <x:c r="H11" s="0" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="I11" s="0" t="s">
+        <x:v>17</x:v>
       </x:c>
     </x:row>
-    <x:row r="12" spans="1:7">
+    <x:row r="12" spans="1:10">
       <x:c r="A12" s="0" t="s">
-        <x:v>51</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="B12" s="0" t="s">
-        <x:v>52</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C12" s="0" t="s">
-        <x:v>53</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="D12" s="0" t="s">
-        <x:v>48</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="F12" s="0" t="s">
-        <x:v>49</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="G12" s="0" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="1:7">
-      <x:c r="A13" s="0" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B13" s="0" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C13" s="0" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="D13" s="0" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="F13" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G13" s="0" t="s">
-        <x:v>59</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="14" spans="1:7">
-      <x:c r="A14" s="0" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B14" s="0" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C14" s="0" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="D14" s="0" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="F14" s="0" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="G14" s="0" t="s">
-        <x:v>64</x:v>
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="H12" s="0" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="I12" s="0" t="s">
+        <x:v>17</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
